--- a/public/files/bulk-upload-sales-template-2022-23.xlsx
+++ b/public/files/bulk-upload-sales-template-2022-23.xlsx
@@ -1,41 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/gary_meyler_communities_gov_uk/Documents/Documents/CORE/2022_23 Material/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CA63CA-F7F1-4012-9D2D-93361313DD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales 2022_23 bulk template" sheetId="2" r:id="rId1"/>
+    <sheet name="Sales 2022_23 bulk template" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sales 2022_23 bulk template'!$A$1:$DF$6</definedName>
-  </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>Question</t>
   </si>
@@ -735,37 +711,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,18 +751,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -795,29 +778,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,130 +808,170 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -972,116 +995,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1113,20 +1042,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1138,7 +1063,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -1159,16 +1084,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1177,23 +1093,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1248,1756 +1162,3234 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB19871-146A-4491-9283-DDB8B9F6705D}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DV5"/>
+  <dimension ref="A1:DV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.4609375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.765625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.69140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="8.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="8.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="8.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.69140625" style="11" customWidth="1"/>
-    <col min="32" max="32" width="12.3046875" style="11" customWidth="1"/>
-    <col min="33" max="33" width="10.23046875" style="11" customWidth="1"/>
-    <col min="34" max="34" width="10.69140625" style="11" customWidth="1"/>
-    <col min="35" max="35" width="11.765625" style="11" customWidth="1"/>
-    <col min="36" max="36" width="11.4609375" style="11" customWidth="1"/>
-    <col min="37" max="37" width="17.07421875" style="11" customWidth="1"/>
-    <col min="38" max="38" width="12.69140625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="8" style="11" customWidth="1"/>
-    <col min="40" max="40" width="11" style="11" customWidth="1"/>
-    <col min="41" max="41" width="14.4609375" style="11" customWidth="1"/>
-    <col min="42" max="42" width="12.69140625" style="11" customWidth="1"/>
-    <col min="43" max="43" width="13.765625" style="11" customWidth="1"/>
-    <col min="44" max="44" width="9.53515625" style="11" customWidth="1"/>
-    <col min="45" max="45" width="10.3046875" style="11" customWidth="1"/>
-    <col min="46" max="46" width="8.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.23046875" style="11" customWidth="1"/>
-    <col min="48" max="48" width="8.07421875" style="11" customWidth="1"/>
-    <col min="49" max="49" width="13.69140625" style="11" customWidth="1"/>
-    <col min="50" max="50" width="12.53515625" style="11" customWidth="1"/>
-    <col min="51" max="51" width="11.3046875" style="11" customWidth="1"/>
-    <col min="52" max="52" width="9.765625" style="11" customWidth="1"/>
-    <col min="53" max="53" width="10.07421875" style="11" customWidth="1"/>
-    <col min="54" max="54" width="12.07421875" style="11" customWidth="1"/>
-    <col min="55" max="55" width="10.765625" style="11" customWidth="1"/>
-    <col min="56" max="56" width="11.23046875" style="11" customWidth="1"/>
-    <col min="57" max="57" width="13.53515625" style="11" customWidth="1"/>
-    <col min="58" max="58" width="13.23046875" style="11" customWidth="1"/>
-    <col min="59" max="59" width="9.3046875" style="11" customWidth="1"/>
-    <col min="60" max="60" width="14.3046875" style="11" customWidth="1"/>
-    <col min="61" max="61" width="15.84375" style="11" customWidth="1"/>
-    <col min="62" max="62" width="14.23046875" style="11" customWidth="1"/>
-    <col min="63" max="63" width="14.84375" style="11" customWidth="1"/>
-    <col min="64" max="64" width="15.3046875" style="11" customWidth="1"/>
-    <col min="65" max="65" width="14.4609375" style="11" customWidth="1"/>
-    <col min="66" max="66" width="19" style="11" customWidth="1"/>
-    <col min="67" max="67" width="15.3046875" style="11" customWidth="1"/>
-    <col min="68" max="68" width="15.69140625" style="11" customWidth="1"/>
-    <col min="69" max="69" width="14.23046875" style="11" customWidth="1"/>
-    <col min="70" max="70" width="17.4609375" style="11" customWidth="1"/>
-    <col min="71" max="71" width="14.3046875" style="11" customWidth="1"/>
-    <col min="72" max="72" width="13.4609375" style="11" customWidth="1"/>
-    <col min="73" max="73" width="11.84375" style="11" customWidth="1"/>
-    <col min="74" max="74" width="12.84375" style="11" customWidth="1"/>
-    <col min="75" max="75" width="14.23046875" style="11" customWidth="1"/>
-    <col min="76" max="76" width="13.3046875" style="11" customWidth="1"/>
-    <col min="77" max="77" width="15" style="11" customWidth="1"/>
-    <col min="78" max="78" width="12.69140625" style="11" customWidth="1"/>
-    <col min="79" max="79" width="16.07421875" style="11" customWidth="1"/>
-    <col min="80" max="80" width="13.23046875" style="11" customWidth="1"/>
-    <col min="81" max="81" width="12.84375" style="11" customWidth="1"/>
-    <col min="82" max="82" width="12.4609375" style="11" customWidth="1"/>
-    <col min="83" max="83" width="14.69140625" style="11" customWidth="1"/>
-    <col min="84" max="84" width="13.3046875" style="11" customWidth="1"/>
-    <col min="85" max="85" width="11.4609375" style="11" customWidth="1"/>
-    <col min="86" max="86" width="12.23046875" style="11" customWidth="1"/>
-    <col min="87" max="89" width="13.07421875" style="11" customWidth="1"/>
-    <col min="90" max="90" width="14.07421875" style="11" customWidth="1"/>
-    <col min="91" max="91" width="16.23046875" style="11" customWidth="1"/>
-    <col min="92" max="92" width="12.07421875" style="11" customWidth="1"/>
-    <col min="93" max="93" width="12.69140625" style="11" customWidth="1"/>
-    <col min="94" max="94" width="15.84375" style="11" customWidth="1"/>
-    <col min="95" max="95" width="8.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.23046875" style="11" customWidth="1"/>
-    <col min="97" max="97" width="15" style="11" customWidth="1"/>
-    <col min="98" max="98" width="18.53515625" style="11" customWidth="1"/>
-    <col min="99" max="99" width="13.69140625" style="11" customWidth="1"/>
-    <col min="100" max="100" width="13.4609375" style="11" customWidth="1"/>
-    <col min="101" max="101" width="12.84375" style="11" customWidth="1"/>
-    <col min="102" max="102" width="14.84375" style="11" customWidth="1"/>
-    <col min="103" max="103" width="14.07421875" style="11" customWidth="1"/>
-    <col min="104" max="104" width="15.53515625" style="11" customWidth="1"/>
-    <col min="105" max="105" width="18.765625" style="11" customWidth="1"/>
-    <col min="106" max="106" width="14.4609375" style="11" customWidth="1"/>
-    <col min="107" max="107" width="13.23046875" style="11" customWidth="1"/>
-    <col min="108" max="108" width="15" style="11" customWidth="1"/>
-    <col min="109" max="109" width="13.69140625" style="11" customWidth="1"/>
-    <col min="110" max="111" width="13.3046875" style="11" customWidth="1"/>
-    <col min="112" max="112" width="14.4609375" style="11" customWidth="1"/>
-    <col min="113" max="113" width="8.69140625" style="11"/>
-    <col min="114" max="114" width="13.84375" style="11" customWidth="1"/>
-    <col min="115" max="115" width="11.07421875" style="11" customWidth="1"/>
-    <col min="116" max="116" width="12.53515625" style="11" customWidth="1"/>
-    <col min="117" max="117" width="12.765625" style="11" customWidth="1"/>
-    <col min="118" max="118" width="13.765625" style="11" customWidth="1"/>
-    <col min="119" max="119" width="12.07421875" style="11" customWidth="1"/>
-    <col min="120" max="120" width="14.23046875" style="11" customWidth="1"/>
-    <col min="121" max="121" width="16.4609375" style="11" customWidth="1"/>
-    <col min="122" max="122" width="15.69140625" style="11" customWidth="1"/>
-    <col min="123" max="123" width="17.3046875" style="11" customWidth="1"/>
-    <col min="124" max="124" width="15.53515625" style="11" customWidth="1"/>
-    <col min="125" max="125" width="16.07421875" style="11" customWidth="1"/>
-    <col min="126" max="126" width="16.84375" style="11" customWidth="1"/>
-    <col min="127" max="16384" width="8.69140625" style="11"/>
+    <col min="1" max="1" width="20.4453" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44531" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73438" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.2891" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.57812" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.28906" style="1" customWidth="1"/>
+    <col min="15" max="19" width="8.57812" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.28906" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8.57812" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.15625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28906" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.57812" style="1" customWidth="1"/>
+    <col min="28" max="30" width="8.57812" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7344" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.2891" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.2891" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7344" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7344" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.4453" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.1562" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7344" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11" style="1" customWidth="1"/>
+    <col min="41" max="41" width="14.4453" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7344" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7344" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.57812" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.2891" style="1" customWidth="1"/>
+    <col min="46" max="47" width="8.28906" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.15625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7344" style="1" customWidth="1"/>
+    <col min="50" max="50" width="12.5781" style="1" customWidth="1"/>
+    <col min="51" max="51" width="11.2891" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9.73438" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.1562" style="1" customWidth="1"/>
+    <col min="54" max="54" width="12.1562" style="1" customWidth="1"/>
+    <col min="55" max="55" width="10.7344" style="1" customWidth="1"/>
+    <col min="56" max="56" width="11.2891" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5781" style="1" customWidth="1"/>
+    <col min="58" max="58" width="13.2891" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9.28906" style="1" customWidth="1"/>
+    <col min="60" max="60" width="14.2891" style="1" customWidth="1"/>
+    <col min="61" max="61" width="15.8672" style="1" customWidth="1"/>
+    <col min="62" max="62" width="14.2891" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14.8672" style="1" customWidth="1"/>
+    <col min="64" max="64" width="15.2891" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.4453" style="1" customWidth="1"/>
+    <col min="66" max="66" width="19" style="1" customWidth="1"/>
+    <col min="67" max="67" width="15.2891" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15.7344" style="1" customWidth="1"/>
+    <col min="69" max="69" width="14.2891" style="1" customWidth="1"/>
+    <col min="70" max="70" width="17.4453" style="1" customWidth="1"/>
+    <col min="71" max="71" width="14.2891" style="1" customWidth="1"/>
+    <col min="72" max="72" width="13.4453" style="1" customWidth="1"/>
+    <col min="73" max="73" width="11.8672" style="1" customWidth="1"/>
+    <col min="74" max="74" width="12.8672" style="1" customWidth="1"/>
+    <col min="75" max="75" width="14.2891" style="1" customWidth="1"/>
+    <col min="76" max="76" width="13.2891" style="1" customWidth="1"/>
+    <col min="77" max="77" width="15" style="1" customWidth="1"/>
+    <col min="78" max="78" width="12.7344" style="1" customWidth="1"/>
+    <col min="79" max="79" width="16.1562" style="1" customWidth="1"/>
+    <col min="80" max="80" width="13.2891" style="1" customWidth="1"/>
+    <col min="81" max="81" width="12.8672" style="1" customWidth="1"/>
+    <col min="82" max="82" width="12.4453" style="1" customWidth="1"/>
+    <col min="83" max="83" width="14.7344" style="1" customWidth="1"/>
+    <col min="84" max="84" width="13.2891" style="1" customWidth="1"/>
+    <col min="85" max="85" width="11.4453" style="1" customWidth="1"/>
+    <col min="86" max="86" width="12.2891" style="1" customWidth="1"/>
+    <col min="87" max="89" width="13.1562" style="1" customWidth="1"/>
+    <col min="90" max="90" width="14.1562" style="1" customWidth="1"/>
+    <col min="91" max="91" width="16.2891" style="1" customWidth="1"/>
+    <col min="92" max="92" width="12.1562" style="1" customWidth="1"/>
+    <col min="93" max="93" width="12.7344" style="1" customWidth="1"/>
+    <col min="94" max="94" width="15.8672" style="1" customWidth="1"/>
+    <col min="95" max="95" width="8.44531" style="1" customWidth="1"/>
+    <col min="96" max="96" width="11.2891" style="1" customWidth="1"/>
+    <col min="97" max="97" width="15" style="1" customWidth="1"/>
+    <col min="98" max="98" width="18.5781" style="1" customWidth="1"/>
+    <col min="99" max="99" width="13.7344" style="1" customWidth="1"/>
+    <col min="100" max="100" width="13.4453" style="1" customWidth="1"/>
+    <col min="101" max="101" width="12.8672" style="1" customWidth="1"/>
+    <col min="102" max="102" width="14.8672" style="1" customWidth="1"/>
+    <col min="103" max="103" width="14.1562" style="1" customWidth="1"/>
+    <col min="104" max="104" width="15.5781" style="1" customWidth="1"/>
+    <col min="105" max="105" width="18.7344" style="1" customWidth="1"/>
+    <col min="106" max="106" width="14.4453" style="1" customWidth="1"/>
+    <col min="107" max="107" width="13.2891" style="1" customWidth="1"/>
+    <col min="108" max="108" width="15" style="1" customWidth="1"/>
+    <col min="109" max="109" width="13.7344" style="1" customWidth="1"/>
+    <col min="110" max="111" width="13.2891" style="1" customWidth="1"/>
+    <col min="112" max="112" width="14.4453" style="1" customWidth="1"/>
+    <col min="113" max="113" width="8.73438" style="1" customWidth="1"/>
+    <col min="114" max="114" width="13.8672" style="1" customWidth="1"/>
+    <col min="115" max="115" width="11.1562" style="1" customWidth="1"/>
+    <col min="116" max="116" width="12.5781" style="1" customWidth="1"/>
+    <col min="117" max="117" width="12.7344" style="1" customWidth="1"/>
+    <col min="118" max="118" width="13.7344" style="1" customWidth="1"/>
+    <col min="119" max="119" width="12.1562" style="1" customWidth="1"/>
+    <col min="120" max="120" width="14.2891" style="1" customWidth="1"/>
+    <col min="121" max="121" width="16.4453" style="1" customWidth="1"/>
+    <col min="122" max="122" width="15.7344" style="1" customWidth="1"/>
+    <col min="123" max="123" width="17.2891" style="1" customWidth="1"/>
+    <col min="124" max="124" width="15.5781" style="1" customWidth="1"/>
+    <col min="125" max="125" width="16.1562" style="1" customWidth="1"/>
+    <col min="126" max="126" width="16.8672" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="131.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" t="s" s="3">
         <v>46</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CB1" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CC1" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CE1" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" t="s" s="3">
         <v>84</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CI1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" t="s" s="3">
         <v>91</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" t="s" s="3">
         <v>92</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CS1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CT1" t="s" s="3">
         <v>94</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="CU1" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="CV1" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CW1" t="s" s="3">
         <v>97</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CX1" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CY1" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="CZ1" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DA1" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DB1" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DC1" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DD1" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DE1" t="s" s="3">
         <v>105</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DF1" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DH1" t="s" s="3">
         <v>108</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DI1" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DL1" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DN1" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DO1" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DP1" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DQ1" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DR1" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DS1" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DT1" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DU1" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DV1" t="s" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="52.5" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="4">
         <v>124</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="13" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="13" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="7" t="s">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AH2" s="5"/>
+      <c r="AI2" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AM2" s="6"/>
+      <c r="AN2" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" t="s" s="3">
         <v>141</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AR2" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="7" t="s">
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AY2" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="AZ2" t="s" s="3">
         <v>145</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BD2" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BE2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BG2" t="s" s="3">
         <v>137</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BI2" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BJ2" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BL2" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BM2" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BN2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BO2" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BP2" t="s" s="3">
         <v>145</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BQ2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BR2" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BS2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BT2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="BU2" s="13" t="s">
+      <c r="BU2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="13" t="s">
+      <c r="BV2" s="5"/>
+      <c r="BW2" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="7" t="s">
+      <c r="BX2" s="5"/>
+      <c r="BY2" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="7" t="s">
+      <c r="CA2" s="5"/>
+      <c r="CB2" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CC2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CD2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="CE2" s="7" t="s">
+      <c r="CE2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="CF2" s="7" t="s">
+      <c r="CF2" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CG2" t="s" s="3">
         <v>152</v>
       </c>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="13" t="s">
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="1" t="s">
+      <c r="CK2" s="5"/>
+      <c r="CL2" t="s" s="4">
         <v>153</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CM2" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CN2" t="s" s="4">
         <v>154</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CO2" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CP2" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7" t="s">
+      <c r="CQ2" s="3"/>
+      <c r="CR2" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="CS2" s="5"/>
-      <c r="CT2" s="7" t="s">
+      <c r="CS2" s="6"/>
+      <c r="CT2" t="s" s="3">
         <v>158</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CU2" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1" t="s">
+      <c r="CV2" s="4"/>
+      <c r="CW2" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1" t="s">
+      <c r="CX2" s="4"/>
+      <c r="CY2" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1" t="s">
+      <c r="CZ2" s="4"/>
+      <c r="DA2" t="s" s="4">
         <v>160</v>
       </c>
-      <c r="DB2" s="7" t="s">
+      <c r="DB2" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="DC2" s="7" t="s">
+      <c r="DC2" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="DD2" s="7" t="s">
+      <c r="DD2" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="DE2" s="7" t="s">
+      <c r="DE2" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="DF2" s="7" t="s">
+      <c r="DF2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="DG2" s="7" t="s">
+      <c r="DG2" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="DH2" s="7" t="s">
+      <c r="DH2" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="DI2" s="3">
+      <c r="DI2" s="7">
         <v>1</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DJ2" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DK2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DL2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DM2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DN2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DO2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DP2" t="s" s="4">
         <v>164</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DQ2" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DR2" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DS2" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DT2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DU2" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DV2" t="s" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:126" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="63.75" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" t="s" s="3">
         <v>175</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" t="s" s="3">
         <v>176</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" t="s" s="3">
         <v>178</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" t="s" s="3">
         <v>179</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" t="s" s="3">
         <v>185</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" t="s" s="3">
         <v>187</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="5" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5" t="s">
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" t="s" s="3">
         <v>193</v>
       </c>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="5" t="s">
+      <c r="AQ3" s="6"/>
+      <c r="AR3" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="15" t="s">
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="15" t="s">
+      <c r="AX3" s="8"/>
+      <c r="AY3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="15" t="s">
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15" t="s">
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15" t="s">
+      <c r="BP3" s="6"/>
+      <c r="BQ3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="5" t="s">
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="BW3" s="15" t="s">
+      <c r="BW3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="5" t="s">
+      <c r="BX3" s="6"/>
+      <c r="BY3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="BZ3" s="5" t="s">
+      <c r="BZ3" t="s" s="3">
         <v>200</v>
       </c>
-      <c r="CA3" s="5" t="s">
+      <c r="CA3" t="s" s="3">
         <v>201</v>
       </c>
-      <c r="CB3" s="5" t="s">
+      <c r="CB3" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CC3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="5" t="s">
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="CH3" s="5" t="s">
+      <c r="CH3" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="20" t="s">
+      <c r="CI3" s="6"/>
+      <c r="CJ3" t="s" s="9">
         <v>203</v>
       </c>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
-      <c r="CM3" s="21"/>
-      <c r="CN3" s="22"/>
-      <c r="CO3" s="8" t="s">
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" t="s" s="12">
         <v>168</v>
       </c>
-      <c r="CP3" s="8" t="s">
+      <c r="CP3" t="s" s="12">
         <v>195</v>
       </c>
-      <c r="CQ3" s="8"/>
-      <c r="CR3" s="5" t="s">
+      <c r="CQ3" s="13"/>
+      <c r="CR3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5" t="s">
+      <c r="CS3" s="6"/>
+      <c r="CT3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="CU3" s="5" t="s">
+      <c r="CU3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="CV3" s="5" t="s">
+      <c r="CV3" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="CW3" s="5" t="s">
+      <c r="CW3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="CX3" s="5" t="s">
+      <c r="CX3" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="CY3" s="5" t="s">
+      <c r="CY3" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="CZ3" s="5" t="s">
+      <c r="CZ3" t="s" s="3">
         <v>207</v>
       </c>
-      <c r="DA3" s="5" t="s">
+      <c r="DA3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="DB3" s="5" t="s">
+      <c r="DB3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DC3" s="5" t="s">
+      <c r="DC3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="DD3" s="5" t="s">
+      <c r="DD3" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="DE3" s="5" t="s">
+      <c r="DE3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="DF3" s="5" t="s">
+      <c r="DF3" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="DG3" s="5" t="s">
+      <c r="DG3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DH3" s="5" t="s">
+      <c r="DH3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DI3" s="2" t="s">
+      <c r="DI3" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="DJ3" s="5" t="s">
+      <c r="DJ3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="DK3" s="5" t="s">
+      <c r="DK3" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="DL3" s="5" t="s">
+      <c r="DL3" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="DM3" s="5" t="s">
+      <c r="DM3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="DN3" s="5" t="s">
+      <c r="DN3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="DO3" s="5" t="s">
+      <c r="DO3" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="DP3" s="5" t="s">
+      <c r="DP3" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="DQ3" s="5" t="s">
+      <c r="DQ3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DR3" s="5" t="s">
+      <c r="DR3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DS3" s="5" t="s">
+      <c r="DS3" t="s" s="3">
         <v>208</v>
       </c>
-      <c r="DT3" s="5" t="s">
+      <c r="DT3" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="DU3" s="5" t="s">
+      <c r="DU3" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="DV3" s="5" t="s">
+      <c r="DV3" t="s" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:126" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="81" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="21"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="21"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="21"/>
-      <c r="BF4" s="21"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="21"/>
-      <c r="BM4" s="21"/>
-      <c r="BN4" s="21"/>
-      <c r="BO4" s="21"/>
-      <c r="BP4" s="21"/>
-      <c r="BQ4" s="21"/>
-      <c r="BR4" s="21"/>
-      <c r="BS4" s="21"/>
-      <c r="BT4" s="21"/>
-      <c r="BU4" s="21"/>
-      <c r="BV4" s="21"/>
-      <c r="BW4" s="21"/>
-      <c r="BX4" s="21"/>
-      <c r="BY4" s="21"/>
-      <c r="BZ4" s="21"/>
-      <c r="CA4" s="21"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="21"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="21"/>
-      <c r="CF4" s="21"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="21"/>
-      <c r="CI4" s="21"/>
-      <c r="CJ4" s="21"/>
-      <c r="CK4" s="21"/>
-      <c r="CL4" s="21"/>
-      <c r="CM4" s="21"/>
-      <c r="CN4" s="21"/>
-      <c r="CO4" s="21"/>
-      <c r="CP4" s="21"/>
-      <c r="CQ4" s="21"/>
-      <c r="CR4" s="21"/>
-      <c r="CS4" s="21"/>
-      <c r="CT4" s="21"/>
-      <c r="CU4" s="21"/>
-      <c r="CV4" s="21"/>
-      <c r="CW4" s="21"/>
-      <c r="CX4" s="21"/>
-      <c r="CY4" s="21"/>
-      <c r="CZ4" s="21"/>
-      <c r="DA4" s="21"/>
-      <c r="DB4" s="21"/>
-      <c r="DC4" s="21"/>
-      <c r="DD4" s="21"/>
-      <c r="DE4" s="21"/>
-      <c r="DF4" s="21"/>
-      <c r="DG4" s="21"/>
-      <c r="DH4" s="22"/>
-      <c r="DI4" s="2"/>
-      <c r="DJ4" s="17"/>
-      <c r="DK4" s="18"/>
-      <c r="DL4" s="18"/>
-      <c r="DM4" s="18"/>
-      <c r="DN4" s="18"/>
-      <c r="DO4" s="18"/>
-      <c r="DP4" s="18"/>
-      <c r="DQ4" s="18"/>
-      <c r="DR4" s="18"/>
-      <c r="DS4" s="18"/>
-      <c r="DT4" s="18"/>
-      <c r="DU4" s="18"/>
-      <c r="DV4" s="19"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10"/>
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CY4" s="10"/>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10"/>
+      <c r="DH4" s="11"/>
+      <c r="DI4" s="15"/>
+      <c r="DJ4" s="16"/>
+      <c r="DK4" s="17"/>
+      <c r="DL4" s="17"/>
+      <c r="DM4" s="17"/>
+      <c r="DN4" s="17"/>
+      <c r="DO4" s="17"/>
+      <c r="DP4" s="17"/>
+      <c r="DQ4" s="17"/>
+      <c r="DR4" s="17"/>
+      <c r="DS4" s="17"/>
+      <c r="DT4" s="17"/>
+      <c r="DU4" s="17"/>
+      <c r="DV4" s="18"/>
     </row>
-    <row r="5" spans="1:126" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" ref="C5:BN5" si="0">B5+1</f>
+      <c r="C5" s="19">
+        <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
+      <c r="D5" s="19">
+        <f>C5+1</f>
         <v>3</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
+      <c r="E5" s="19">
+        <f>D5+1</f>
         <v>4</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
+      <c r="F5" s="19">
+        <f>E5+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
+      <c r="G5" s="19">
+        <f>F5+1</f>
         <v>6</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
+      <c r="H5" s="19">
+        <f>G5+1</f>
         <v>7</v>
       </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
+      <c r="I5" s="19">
+        <f>H5+1</f>
         <v>8</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" si="0"/>
+      <c r="J5" s="19">
+        <f>I5+1</f>
         <v>9</v>
       </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
+      <c r="K5" s="19">
+        <f>J5+1</f>
         <v>10</v>
       </c>
-      <c r="L5" s="9">
-        <f t="shared" si="0"/>
+      <c r="L5" s="19">
+        <f>K5+1</f>
         <v>11</v>
       </c>
-      <c r="M5" s="9">
-        <f t="shared" si="0"/>
+      <c r="M5" s="19">
+        <f>L5+1</f>
         <v>12</v>
       </c>
-      <c r="N5" s="9">
-        <f t="shared" si="0"/>
+      <c r="N5" s="19">
+        <f>M5+1</f>
         <v>13</v>
       </c>
-      <c r="O5" s="9">
-        <f t="shared" si="0"/>
+      <c r="O5" s="19">
+        <f>N5+1</f>
         <v>14</v>
       </c>
-      <c r="P5" s="9">
-        <f t="shared" si="0"/>
+      <c r="P5" s="19">
+        <f>O5+1</f>
         <v>15</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="19">
+        <f>P5+1</f>
         <v>16</v>
       </c>
-      <c r="R5" s="9">
-        <f t="shared" si="0"/>
+      <c r="R5" s="19">
+        <f>Q5+1</f>
         <v>17</v>
       </c>
-      <c r="S5" s="9">
-        <f t="shared" si="0"/>
+      <c r="S5" s="19">
+        <f>R5+1</f>
         <v>18</v>
       </c>
-      <c r="T5" s="9">
-        <f t="shared" si="0"/>
+      <c r="T5" s="19">
+        <f>S5+1</f>
         <v>19</v>
       </c>
-      <c r="U5" s="9">
-        <f t="shared" si="0"/>
+      <c r="U5" s="19">
+        <f>T5+1</f>
         <v>20</v>
       </c>
-      <c r="V5" s="9">
-        <f t="shared" si="0"/>
+      <c r="V5" s="19">
+        <f>U5+1</f>
         <v>21</v>
       </c>
-      <c r="W5" s="9">
-        <f t="shared" si="0"/>
+      <c r="W5" s="19">
+        <f>V5+1</f>
         <v>22</v>
       </c>
-      <c r="X5" s="9">
-        <f t="shared" si="0"/>
+      <c r="X5" s="19">
+        <f>W5+1</f>
         <v>23</v>
       </c>
-      <c r="Y5" s="9">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="19">
+        <f>X5+1</f>
         <v>24</v>
       </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="19">
+        <f>Y5+1</f>
         <v>25</v>
       </c>
-      <c r="AA5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="19">
+        <f>Z5+1</f>
         <v>26</v>
       </c>
-      <c r="AB5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="19">
+        <f>AA5+1</f>
         <v>27</v>
       </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="19">
+        <f>AB5+1</f>
         <v>28</v>
       </c>
-      <c r="AD5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AD5" s="19">
+        <f>AC5+1</f>
         <v>29</v>
       </c>
-      <c r="AE5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AE5" s="19">
+        <f>AD5+1</f>
         <v>30</v>
       </c>
-      <c r="AF5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AF5" s="19">
+        <f>AE5+1</f>
         <v>31</v>
       </c>
-      <c r="AG5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AG5" s="19">
+        <f>AF5+1</f>
         <v>32</v>
       </c>
-      <c r="AH5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AH5" s="19">
+        <f>AG5+1</f>
         <v>33</v>
       </c>
-      <c r="AI5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AI5" s="19">
+        <f>AH5+1</f>
         <v>34</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AJ5" s="19">
         <f>AI5+1</f>
         <v>35</v>
       </c>
-      <c r="AK5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AK5" s="19">
+        <f>AJ5+1</f>
         <v>36</v>
       </c>
-      <c r="AL5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AL5" s="19">
+        <f>AK5+1</f>
         <v>37</v>
       </c>
-      <c r="AM5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AM5" s="19">
+        <f>AL5+1</f>
         <v>38</v>
       </c>
-      <c r="AN5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AN5" s="19">
+        <f>AM5+1</f>
         <v>39</v>
       </c>
-      <c r="AO5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AO5" s="19">
+        <f>AN5+1</f>
         <v>40</v>
       </c>
-      <c r="AP5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AP5" s="19">
+        <f>AO5+1</f>
         <v>41</v>
       </c>
-      <c r="AQ5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AQ5" s="19">
+        <f>AP5+1</f>
         <v>42</v>
       </c>
-      <c r="AR5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AR5" s="19">
+        <f>AQ5+1</f>
         <v>43</v>
       </c>
-      <c r="AS5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AS5" s="19">
+        <f>AR5+1</f>
         <v>44</v>
       </c>
-      <c r="AT5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AT5" s="19">
+        <f>AS5+1</f>
         <v>45</v>
       </c>
-      <c r="AU5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AU5" s="19">
+        <f>AT5+1</f>
         <v>46</v>
       </c>
-      <c r="AV5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AV5" s="19">
+        <f>AU5+1</f>
         <v>47</v>
       </c>
-      <c r="AW5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AW5" s="19">
+        <f>AV5+1</f>
         <v>48</v>
       </c>
-      <c r="AX5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AX5" s="19">
+        <f>AW5+1</f>
         <v>49</v>
       </c>
-      <c r="AY5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AY5" s="19">
+        <f>AX5+1</f>
         <v>50</v>
       </c>
-      <c r="AZ5" s="9">
-        <f t="shared" si="0"/>
+      <c r="AZ5" s="19">
+        <f>AY5+1</f>
         <v>51</v>
       </c>
-      <c r="BA5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BA5" s="19">
+        <f>AZ5+1</f>
         <v>52</v>
       </c>
-      <c r="BB5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BB5" s="19">
+        <f>BA5+1</f>
         <v>53</v>
       </c>
-      <c r="BC5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BC5" s="19">
+        <f>BB5+1</f>
         <v>54</v>
       </c>
-      <c r="BD5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BD5" s="19">
+        <f>BC5+1</f>
         <v>55</v>
       </c>
-      <c r="BE5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BE5" s="19">
+        <f>BD5+1</f>
         <v>56</v>
       </c>
-      <c r="BF5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BF5" s="19">
+        <f>BE5+1</f>
         <v>57</v>
       </c>
-      <c r="BG5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BG5" s="19">
+        <f>BF5+1</f>
         <v>58</v>
       </c>
-      <c r="BH5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BH5" s="19">
+        <f>BG5+1</f>
         <v>59</v>
       </c>
-      <c r="BI5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BI5" s="19">
+        <f>BH5+1</f>
         <v>60</v>
       </c>
-      <c r="BJ5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BJ5" s="19">
+        <f>BI5+1</f>
         <v>61</v>
       </c>
-      <c r="BK5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BK5" s="19">
+        <f>BJ5+1</f>
         <v>62</v>
       </c>
-      <c r="BL5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BL5" s="19">
+        <f>BK5+1</f>
         <v>63</v>
       </c>
-      <c r="BM5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BM5" s="19">
+        <f>BL5+1</f>
         <v>64</v>
       </c>
-      <c r="BN5" s="9">
-        <f t="shared" si="0"/>
+      <c r="BN5" s="19">
+        <f>BM5+1</f>
         <v>65</v>
       </c>
-      <c r="BO5" s="9">
-        <f t="shared" ref="BO5:DA5" si="1">BN5+1</f>
+      <c r="BO5" s="19">
+        <f>BN5+1</f>
         <v>66</v>
       </c>
-      <c r="BP5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BP5" s="19">
+        <f>BO5+1</f>
         <v>67</v>
       </c>
-      <c r="BQ5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BQ5" s="19">
+        <f>BP5+1</f>
         <v>68</v>
       </c>
-      <c r="BR5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BR5" s="19">
+        <f>BQ5+1</f>
         <v>69</v>
       </c>
-      <c r="BS5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BS5" s="19">
+        <f>BR5+1</f>
         <v>70</v>
       </c>
-      <c r="BT5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BT5" s="19">
+        <f>BS5+1</f>
         <v>71</v>
       </c>
-      <c r="BU5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BU5" s="19">
+        <f>BT5+1</f>
         <v>72</v>
       </c>
-      <c r="BV5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BV5" s="19">
+        <f>BU5+1</f>
         <v>73</v>
       </c>
-      <c r="BW5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BW5" s="19">
+        <f>BV5+1</f>
         <v>74</v>
       </c>
-      <c r="BX5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BX5" s="19">
+        <f>BW5+1</f>
         <v>75</v>
       </c>
-      <c r="BY5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BY5" s="19">
+        <f>BX5+1</f>
         <v>76</v>
       </c>
-      <c r="BZ5" s="9">
-        <f t="shared" si="1"/>
+      <c r="BZ5" s="19">
+        <f>BY5+1</f>
         <v>77</v>
       </c>
-      <c r="CA5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CA5" s="19">
+        <f>BZ5+1</f>
         <v>78</v>
       </c>
-      <c r="CB5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CB5" s="19">
+        <f>CA5+1</f>
         <v>79</v>
       </c>
-      <c r="CC5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CC5" s="19">
+        <f>CB5+1</f>
         <v>80</v>
       </c>
-      <c r="CD5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CD5" s="19">
+        <f>CC5+1</f>
         <v>81</v>
       </c>
-      <c r="CE5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CE5" s="19">
+        <f>CD5+1</f>
         <v>82</v>
       </c>
-      <c r="CF5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CF5" s="19">
+        <f>CE5+1</f>
         <v>83</v>
       </c>
-      <c r="CG5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CG5" s="19">
+        <f>CF5+1</f>
         <v>84</v>
       </c>
-      <c r="CH5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CH5" s="19">
+        <f>CG5+1</f>
         <v>85</v>
       </c>
-      <c r="CI5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CI5" s="19">
+        <f>CH5+1</f>
         <v>86</v>
       </c>
-      <c r="CJ5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CJ5" s="19">
+        <f>CI5+1</f>
         <v>87</v>
       </c>
-      <c r="CK5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CK5" s="19">
+        <f>CJ5+1</f>
         <v>88</v>
       </c>
-      <c r="CL5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CL5" s="19">
+        <f>CK5+1</f>
         <v>89</v>
       </c>
-      <c r="CM5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CM5" s="19">
+        <f>CL5+1</f>
         <v>90</v>
       </c>
-      <c r="CN5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CN5" s="19">
+        <f>CM5+1</f>
         <v>91</v>
       </c>
-      <c r="CO5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CO5" s="19">
+        <f>CN5+1</f>
         <v>92</v>
       </c>
-      <c r="CP5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CP5" s="19">
+        <f>CO5+1</f>
         <v>93</v>
       </c>
-      <c r="CQ5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CQ5" s="19">
+        <f>CP5+1</f>
         <v>94</v>
       </c>
-      <c r="CR5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CR5" s="19">
+        <f>CQ5+1</f>
         <v>95</v>
       </c>
-      <c r="CS5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CS5" s="19">
+        <f>CR5+1</f>
         <v>96</v>
       </c>
-      <c r="CT5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CT5" s="19">
+        <f>CS5+1</f>
         <v>97</v>
       </c>
-      <c r="CU5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CU5" s="19">
+        <f>CT5+1</f>
         <v>98</v>
       </c>
-      <c r="CV5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CV5" s="19">
+        <f>CU5+1</f>
         <v>99</v>
       </c>
-      <c r="CW5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CW5" s="19">
+        <f>CV5+1</f>
         <v>100</v>
       </c>
-      <c r="CX5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CX5" s="19">
+        <f>CW5+1</f>
         <v>101</v>
       </c>
-      <c r="CY5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CY5" s="19">
+        <f>CX5+1</f>
         <v>102</v>
       </c>
-      <c r="CZ5" s="9">
-        <f t="shared" si="1"/>
+      <c r="CZ5" s="19">
+        <f>CY5+1</f>
         <v>103</v>
       </c>
-      <c r="DA5" s="9">
-        <f t="shared" si="1"/>
+      <c r="DA5" s="19">
+        <f>CZ5+1</f>
         <v>104</v>
       </c>
-      <c r="DB5" s="9">
+      <c r="DB5" s="19">
         <f>DA5+1</f>
         <v>105</v>
       </c>
-      <c r="DC5" s="9">
+      <c r="DC5" s="19">
         <f>DB5+1</f>
         <v>106</v>
       </c>
-      <c r="DD5" s="9">
-        <f t="shared" ref="DD5:DE5" si="2">DC5+1</f>
+      <c r="DD5" s="19">
+        <f>DC5+1</f>
         <v>107</v>
       </c>
-      <c r="DE5" s="9">
-        <f t="shared" si="2"/>
+      <c r="DE5" s="19">
+        <f>DD5+1</f>
         <v>108</v>
       </c>
-      <c r="DF5" s="9">
-        <f t="shared" ref="DF5" si="3">DE5+1</f>
+      <c r="DF5" s="19">
+        <f>DE5+1</f>
         <v>109</v>
       </c>
-      <c r="DG5" s="9">
-        <f t="shared" ref="DG5" si="4">DF5+1</f>
+      <c r="DG5" s="19">
+        <f>DF5+1</f>
         <v>110</v>
       </c>
-      <c r="DH5" s="9">
-        <f t="shared" ref="DH5" si="5">DG5+1</f>
+      <c r="DH5" s="19">
+        <f>DG5+1</f>
         <v>111</v>
       </c>
-      <c r="DI5" s="10">
+      <c r="DI5" s="7">
         <v>112</v>
       </c>
-      <c r="DJ5" s="9">
+      <c r="DJ5" s="19">
         <f>DI5+1</f>
         <v>113</v>
       </c>
-      <c r="DK5" s="9">
+      <c r="DK5" s="19">
         <f>DJ5+1</f>
         <v>114</v>
       </c>
-      <c r="DL5" s="9">
+      <c r="DL5" s="19">
         <f>DK5+1</f>
         <v>115</v>
       </c>
-      <c r="DM5" s="9">
-        <f t="shared" ref="DM5:DR5" si="6">DL5+1</f>
+      <c r="DM5" s="19">
+        <f>DL5+1</f>
         <v>116</v>
       </c>
-      <c r="DN5" s="9">
-        <f t="shared" si="6"/>
+      <c r="DN5" s="19">
+        <f>DM5+1</f>
         <v>117</v>
       </c>
-      <c r="DO5" s="9">
-        <f t="shared" si="6"/>
+      <c r="DO5" s="19">
+        <f>DN5+1</f>
         <v>118</v>
       </c>
-      <c r="DP5" s="9">
-        <f t="shared" si="6"/>
+      <c r="DP5" s="19">
+        <f>DO5+1</f>
         <v>119</v>
       </c>
-      <c r="DQ5" s="9">
-        <f t="shared" si="6"/>
+      <c r="DQ5" s="19">
+        <f>DP5+1</f>
         <v>120</v>
       </c>
-      <c r="DR5" s="9">
-        <f t="shared" si="6"/>
+      <c r="DR5" s="19">
+        <f>DQ5+1</f>
         <v>121</v>
       </c>
-      <c r="DS5" s="9">
-        <f t="shared" ref="DS5" si="7">DR5+1</f>
+      <c r="DS5" s="19">
+        <f>DR5+1</f>
         <v>122</v>
       </c>
-      <c r="DT5" s="9">
-        <f t="shared" ref="DT5" si="8">DS5+1</f>
+      <c r="DT5" s="19">
+        <f>DS5+1</f>
         <v>123</v>
       </c>
-      <c r="DU5" s="9">
-        <f t="shared" ref="DU5" si="9">DT5+1</f>
+      <c r="DU5" s="19">
+        <f>DT5+1</f>
         <v>124</v>
       </c>
-      <c r="DV5" s="9">
-        <f t="shared" ref="DV5" si="10">DU5+1</f>
+      <c r="DV5" s="19">
+        <f>DU5+1</f>
         <v>125</v>
       </c>
+    </row>
+    <row r="6" ht="16.6" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="20"/>
+      <c r="CP6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="20"/>
+      <c r="CV6" s="20"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
+      <c r="CZ6" s="20"/>
+      <c r="DA6" s="20"/>
+      <c r="DB6" s="20"/>
+      <c r="DC6" s="20"/>
+      <c r="DD6" s="20"/>
+      <c r="DE6" s="20"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="20"/>
+      <c r="DH6" s="20"/>
+      <c r="DI6" s="20"/>
+      <c r="DJ6" s="20"/>
+      <c r="DK6" s="20"/>
+      <c r="DL6" s="20"/>
+      <c r="DM6" s="20"/>
+      <c r="DN6" s="20"/>
+      <c r="DO6" s="20"/>
+      <c r="DP6" s="20"/>
+      <c r="DQ6" s="20"/>
+      <c r="DR6" s="20"/>
+      <c r="DS6" s="20"/>
+      <c r="DT6" s="20"/>
+      <c r="DU6" s="20"/>
+      <c r="DV6" s="20"/>
+    </row>
+    <row r="7" ht="16.6" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
+      <c r="CQ7" s="21"/>
+      <c r="CR7" s="21"/>
+      <c r="CS7" s="21"/>
+      <c r="CT7" s="21"/>
+      <c r="CU7" s="21"/>
+      <c r="CV7" s="21"/>
+      <c r="CW7" s="21"/>
+      <c r="CX7" s="21"/>
+      <c r="CY7" s="21"/>
+      <c r="CZ7" s="21"/>
+      <c r="DA7" s="21"/>
+      <c r="DB7" s="21"/>
+      <c r="DC7" s="21"/>
+      <c r="DD7" s="21"/>
+      <c r="DE7" s="21"/>
+      <c r="DF7" s="21"/>
+      <c r="DG7" s="21"/>
+      <c r="DH7" s="21"/>
+      <c r="DI7" s="21"/>
+      <c r="DJ7" s="21"/>
+      <c r="DK7" s="21"/>
+      <c r="DL7" s="21"/>
+      <c r="DM7" s="21"/>
+      <c r="DN7" s="21"/>
+      <c r="DO7" s="21"/>
+      <c r="DP7" s="21"/>
+      <c r="DQ7" s="21"/>
+      <c r="DR7" s="21"/>
+      <c r="DS7" s="21"/>
+      <c r="DT7" s="21"/>
+      <c r="DU7" s="21"/>
+      <c r="DV7" s="21"/>
+    </row>
+    <row r="8" ht="16.6" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
+      <c r="CF8" s="21"/>
+      <c r="CG8" s="21"/>
+      <c r="CH8" s="21"/>
+      <c r="CI8" s="21"/>
+      <c r="CJ8" s="21"/>
+      <c r="CK8" s="21"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="21"/>
+      <c r="CS8" s="21"/>
+      <c r="CT8" s="21"/>
+      <c r="CU8" s="21"/>
+      <c r="CV8" s="21"/>
+      <c r="CW8" s="21"/>
+      <c r="CX8" s="21"/>
+      <c r="CY8" s="21"/>
+      <c r="CZ8" s="21"/>
+      <c r="DA8" s="21"/>
+      <c r="DB8" s="21"/>
+      <c r="DC8" s="21"/>
+      <c r="DD8" s="21"/>
+      <c r="DE8" s="21"/>
+      <c r="DF8" s="21"/>
+      <c r="DG8" s="21"/>
+      <c r="DH8" s="21"/>
+      <c r="DI8" s="21"/>
+      <c r="DJ8" s="21"/>
+      <c r="DK8" s="21"/>
+      <c r="DL8" s="21"/>
+      <c r="DM8" s="21"/>
+      <c r="DN8" s="21"/>
+      <c r="DO8" s="21"/>
+      <c r="DP8" s="21"/>
+      <c r="DQ8" s="21"/>
+      <c r="DR8" s="21"/>
+      <c r="DS8" s="21"/>
+      <c r="DT8" s="21"/>
+      <c r="DU8" s="21"/>
+      <c r="DV8" s="21"/>
+    </row>
+    <row r="9" ht="16.6" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21"/>
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21"/>
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21"/>
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21"/>
+      <c r="CU9" s="21"/>
+      <c r="CV9" s="21"/>
+      <c r="CW9" s="21"/>
+      <c r="CX9" s="21"/>
+      <c r="CY9" s="21"/>
+      <c r="CZ9" s="21"/>
+      <c r="DA9" s="21"/>
+      <c r="DB9" s="21"/>
+      <c r="DC9" s="21"/>
+      <c r="DD9" s="21"/>
+      <c r="DE9" s="21"/>
+      <c r="DF9" s="21"/>
+      <c r="DG9" s="21"/>
+      <c r="DH9" s="21"/>
+      <c r="DI9" s="21"/>
+      <c r="DJ9" s="21"/>
+      <c r="DK9" s="21"/>
+      <c r="DL9" s="21"/>
+      <c r="DM9" s="21"/>
+      <c r="DN9" s="21"/>
+      <c r="DO9" s="21"/>
+      <c r="DP9" s="21"/>
+      <c r="DQ9" s="21"/>
+      <c r="DR9" s="21"/>
+      <c r="DS9" s="21"/>
+      <c r="DT9" s="21"/>
+      <c r="DU9" s="21"/>
+      <c r="DV9" s="21"/>
+    </row>
+    <row r="10" ht="16.6" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="21"/>
+      <c r="CJ10" s="21"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="21"/>
+      <c r="CO10" s="21"/>
+      <c r="CP10" s="21"/>
+      <c r="CQ10" s="21"/>
+      <c r="CR10" s="21"/>
+      <c r="CS10" s="21"/>
+      <c r="CT10" s="21"/>
+      <c r="CU10" s="21"/>
+      <c r="CV10" s="21"/>
+      <c r="CW10" s="21"/>
+      <c r="CX10" s="21"/>
+      <c r="CY10" s="21"/>
+      <c r="CZ10" s="21"/>
+      <c r="DA10" s="21"/>
+      <c r="DB10" s="21"/>
+      <c r="DC10" s="21"/>
+      <c r="DD10" s="21"/>
+      <c r="DE10" s="21"/>
+      <c r="DF10" s="21"/>
+      <c r="DG10" s="21"/>
+      <c r="DH10" s="21"/>
+      <c r="DI10" s="21"/>
+      <c r="DJ10" s="21"/>
+      <c r="DK10" s="21"/>
+      <c r="DL10" s="21"/>
+      <c r="DM10" s="21"/>
+      <c r="DN10" s="21"/>
+      <c r="DO10" s="21"/>
+      <c r="DP10" s="21"/>
+      <c r="DQ10" s="21"/>
+      <c r="DR10" s="21"/>
+      <c r="DS10" s="21"/>
+      <c r="DT10" s="21"/>
+      <c r="DU10" s="21"/>
+      <c r="DV10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3028,283 +4420,10 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AK3:AL3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="63" fitToWidth="3" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000BCF930048F2A84190E342D576E507E9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a445232bed60e3559799bfcc208b9358">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ede1785e-3bac-4a90-a48c-62cc0231644e" xmlns:ns3="6c5f9a5a-0dad-4595-a39a-6416e9fb7054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b9d2f5fe7e1500e166325eebd2237de" ns2:_="" ns3:_="">
-    <xsd:import namespace="ede1785e-3bac-4a90-a48c-62cc0231644e"/>
-    <xsd:import namespace="6c5f9a5a-0dad-4595-a39a-6416e9fb7054"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ede1785e-3bac-4a90-a48c-62cc0231644e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6c5f9a5a-0dad-4595-a39a-6416e9fb7054" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="8270c081-d9f3-48ae-83c7-c2320a8ca25c"/>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F049563-579E-48FD-B06D-5B9E746BF4CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9163C404-A85E-472D-9A61-12EC51ECEE79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4BE4E6-2807-450D-B1E0-51717304DD91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ede1785e-3bac-4a90-a48c-62cc0231644e"/>
-    <ds:schemaRef ds:uri="6c5f9a5a-0dad-4595-a39a-6416e9fb7054"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E921B7C-72B3-412E-A922-761BC02590FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>